--- a/导出数据/性别比和性别比密度拟合曲线.xlsx
+++ b/导出数据/性别比和性别比密度拟合曲线.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZWZ\2023Fall\数学建模\美赛2024\fish-vs-eco\Task 1\task1-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA48C56-FB1E-42DF-9D7B-EE02C589F5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90417E7D-1F7D-4A52-8D3D-67DD1741B420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,17 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+  <si>
+    <t>原始性别比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未成年鱼密度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>性别比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>原始密度数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拟合数据</t>
+    <t>成年鱼密度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -110,36 +114,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -175,7 +149,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$14</c:f>
+              <c:f>Sheet1!$C$1:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -223,7 +197,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$14</c:f>
+              <c:f>Sheet1!$D$1:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -272,7 +246,137 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F1AB-435F-8102-2D5DE8921BFC}"/>
+              <c16:uniqueId val="{00000002-1CA7-441E-BAC2-F2FD8C880F15}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$1:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.4285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53846153846153844</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66666666666666674</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81818181818181812</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2222222222222225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8571428571428574</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.0000000000000018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$1:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>7.1308046905969088E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4192535646381833E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8422835697987896E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9821704845414981E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.838914308866327E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1141251504277325</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12702972686262295</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13710287239333455</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14434458701986702</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14875487074222066</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.15033372356039554</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.14908114547439141</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14499713648420839</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1CA7-441E-BAC2-F2FD8C880F15}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -284,11 +388,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1439041200"/>
-        <c:axId val="1439037872"/>
+        <c:axId val="1475951855"/>
+        <c:axId val="1475952271"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1439041200"/>
+        <c:axId val="1475951855"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -345,12 +449,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1439037872"/>
+        <c:crossAx val="1475952271"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1439037872"/>
+        <c:axId val="1475952271"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -407,7 +511,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1439041200"/>
+        <c:crossAx val="1475951855"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1024,22 +1128,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>174625</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>479425</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F9BEE7D-0CE3-4467-82C2-67A7AD340762}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EFB9B5F-2E99-4A2D-B5CB-4178FA058397}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1357,190 +1461,233 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="12.7265625" customWidth="1"/>
-    <col min="2" max="2" width="13.7265625" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" customWidth="1"/>
     <col min="3" max="3" width="12.7265625" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" customWidth="1"/>
+    <col min="4" max="4" width="16.36328125" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
+    <row r="1" spans="1:5">
+      <c r="A1">
+        <v>1.0790020790020791</v>
+      </c>
+      <c r="B1">
+        <v>0.251</v>
+      </c>
+      <c r="C1">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="D1">
+        <v>1.2151500000000037E-2</v>
+      </c>
+      <c r="E1">
+        <v>7.1308046905969088E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2">
-        <v>1.0790020790020791</v>
+        <v>1.3419203747072597</v>
       </c>
       <c r="B2">
         <v>0.251</v>
       </c>
       <c r="C2">
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="D2">
+        <v>5.8267000000000013E-2</v>
+      </c>
+      <c r="E2">
+        <v>3.4192535646381833E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>0.66944908180300511</v>
+      </c>
+      <c r="B3">
+        <v>7.8E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="D3">
+        <v>9.9557500000000076E-2</v>
+      </c>
+      <c r="E3">
+        <v>5.8422835697987896E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
         <v>0.4285714285714286</v>
       </c>
-      <c r="D2">
-        <v>1.2151500000000037E-2</v>
+      <c r="B4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C4">
+        <v>0.81818181818181812</v>
+      </c>
+      <c r="D4">
+        <v>0.13602300000000001</v>
+      </c>
+      <c r="E4">
+        <v>7.9821704845414981E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>1.3419203747072597</v>
-      </c>
-      <c r="B3">
-        <v>0.251</v>
-      </c>
-      <c r="C3">
-        <v>0.53846153846153844</v>
-      </c>
-      <c r="D3">
-        <v>5.8267000000000013E-2</v>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>0.56739811912225724</v>
+      </c>
+      <c r="B5">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.16766350000000008</v>
+      </c>
+      <c r="E5">
+        <v>9.838914308866327E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>0.66944908180300511</v>
-      </c>
-      <c r="B4">
-        <v>7.8E-2</v>
-      </c>
-      <c r="C4">
-        <v>0.66666666666666674</v>
-      </c>
-      <c r="D4">
-        <v>9.9557500000000076E-2</v>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>1.032520325203252</v>
+      </c>
+      <c r="B6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C6">
+        <v>1.2222222222222225</v>
+      </c>
+      <c r="D6">
+        <v>0.19447899999999996</v>
+      </c>
+      <c r="E6">
+        <v>0.1141251504277325</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>0.4285714285714286</v>
-      </c>
-      <c r="B5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C5">
-        <v>0.81818181818181812</v>
-      </c>
-      <c r="D5">
-        <v>0.13602300000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>0.56739811912225724</v>
-      </c>
-      <c r="B6">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>0.16766350000000008</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>1.032520325203252</v>
       </c>
       <c r="B7">
-        <v>3.0000000000000001E-3</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="C7">
-        <v>1.2222222222222225</v>
+        <v>1.4999999999999998</v>
       </c>
       <c r="D7">
-        <v>0.19447899999999996</v>
+        <v>0.21646949999999998</v>
+      </c>
+      <c r="E7">
+        <v>0.12702972686262295</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8">
-        <v>1.032520325203252</v>
+        <v>1.3474178403755865</v>
       </c>
       <c r="B8">
-        <v>0.46200000000000002</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="C8">
-        <v>1.4999999999999998</v>
+        <v>1.8571428571428574</v>
       </c>
       <c r="D8">
-        <v>0.21646949999999998</v>
+        <v>0.23363500000000015</v>
+      </c>
+      <c r="E8">
+        <v>0.13710287239333455</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9">
-        <v>1.3474178403755865</v>
+        <v>0.88679245283018859</v>
       </c>
       <c r="B9">
-        <v>7.1999999999999995E-2</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="C9">
-        <v>1.8571428571428574</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="D9">
-        <v>0.23363500000000015</v>
+        <v>0.24597550000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.14434458701986702</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>0.88679245283018859</v>
-      </c>
-      <c r="B10">
-        <v>0.14799999999999999</v>
-      </c>
+    <row r="10" spans="1:5">
       <c r="C10">
-        <v>2.333333333333333</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>0.24597550000000001</v>
+        <v>0.25349099999999991</v>
+      </c>
+      <c r="E10">
+        <v>0.14875487074222066</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="C11">
+        <v>4.0000000000000009</v>
+      </c>
+      <c r="D11">
+        <v>0.25618150000000006</v>
+      </c>
+      <c r="E11">
+        <v>0.15033372356039554</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="C12">
+        <v>5.6666666666666661</v>
+      </c>
+      <c r="D12">
+        <v>0.25404700000000002</v>
+      </c>
+      <c r="E12">
+        <v>0.14908114547439141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="C13">
+        <v>9.0000000000000018</v>
+      </c>
+      <c r="D13">
+        <v>0.24708750000000002</v>
+      </c>
+      <c r="E13">
+        <v>0.14499713648420839</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="D11">
-        <v>0.25349099999999991</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="C12">
-        <v>4.0000000000000009</v>
-      </c>
-      <c r="D12">
-        <v>0.25618150000000006</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="C13">
-        <v>5.6666666666666661</v>
-      </c>
-      <c r="D13">
-        <v>0.25404700000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="C14">
-        <v>9.0000000000000018</v>
-      </c>
-      <c r="D14">
-        <v>0.24708750000000002</v>
       </c>
     </row>
   </sheetData>
